--- a/envio.xlsx
+++ b/envio.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Milenko\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0A20771-B774-44A8-9EE9-0BCEDBC62676}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74BB665B-8CEA-4D3A-83D8-33404DD097BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{DEC754CD-5D45-4F4D-99E5-E2F05440CE03}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>Detalle Costos</t>
   </si>
@@ -68,9 +68,6 @@
   </si>
   <si>
     <t>VDI AWS Desechables - Tolten x4</t>
-  </si>
-  <si>
-    <t>Plan estandar de Azure Virtual Desktop</t>
   </si>
 </sst>
 </file>
@@ -386,16 +383,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>723900</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>540893</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>103944</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>217043</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>170619</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -418,8 +415,52 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2771775" y="3952875"/>
+          <a:off x="7781925" y="209550"/>
           <a:ext cx="16257143" cy="6647619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>512952</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>132929</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Imagen 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{38CBD62E-A7AD-47BD-B4B2-ABE37B40349A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10106025" y="3257550"/>
+          <a:ext cx="11180952" cy="3371429"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -728,10 +769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{158B7CFF-5993-48C1-A70A-5E79D197EBBF}">
-  <dimension ref="A1:F33"/>
+  <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="T16" sqref="T16"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -839,11 +880,6 @@
     <row r="21" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
     </row>
-    <row r="33" spans="6:6" x14ac:dyDescent="0.25">
-      <c r="F33" t="s">
-        <v>11</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
